--- a/nscod16-step2.xlsx
+++ b/nscod16-step2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\dtu\steps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\dtu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7436,27 +7436,12 @@
         <f t="shared" si="20"/>
         <v>1.1730492496224501</v>
       </c>
-      <c r="R45">
-        <v>2016</v>
-      </c>
-      <c r="S45" s="9">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="T45" s="9">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="U45" s="9">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="V45" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="W45" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="X45" s="9">
-        <v>0.2</v>
-      </c>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
       <c r="AP45">
         <v>2016</v>
       </c>
